--- a/aggregated_dataset.xlsx
+++ b/aggregated_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,11 @@
           <t>Other</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>avg_distance_km</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -510,6 +515,9 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>4.136376498618044</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -569,6 +577,9 @@
       <c r="Q3">
         <v>1</v>
       </c>
+      <c r="R3">
+        <v>4.171829734708102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -628,6 +639,9 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="R4">
+        <v>4.490206231553414</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -687,6 +701,9 @@
       <c r="Q5">
         <v>1</v>
       </c>
+      <c r="R5">
+        <v>4.518039712920642</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -746,6 +763,9 @@
       <c r="Q6">
         <v>0</v>
       </c>
+      <c r="R6">
+        <v>4.508389709238768</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -805,6 +825,9 @@
       <c r="Q7">
         <v>6</v>
       </c>
+      <c r="R7">
+        <v>4.561800693261488</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -864,6 +887,9 @@
       <c r="Q8">
         <v>7</v>
       </c>
+      <c r="R8">
+        <v>4.723351366358533</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -923,6 +949,9 @@
       <c r="Q9">
         <v>10</v>
       </c>
+      <c r="R9">
+        <v>4.541151156676015</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -982,6 +1011,9 @@
       <c r="Q10">
         <v>2</v>
       </c>
+      <c r="R10">
+        <v>4.286881911154486</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1041,6 +1073,9 @@
       <c r="Q11">
         <v>1</v>
       </c>
+      <c r="R11">
+        <v>4.675176933039502</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -1100,6 +1135,9 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="R12">
+        <v>4.299951632670066</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1159,6 +1197,9 @@
       <c r="Q13">
         <v>3</v>
       </c>
+      <c r="R13">
+        <v>3.709505535754547</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1218,6 +1259,9 @@
       <c r="Q14">
         <v>1</v>
       </c>
+      <c r="R14">
+        <v>3.876734017006266</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -1277,6 +1321,9 @@
       <c r="Q15">
         <v>0</v>
       </c>
+      <c r="R15">
+        <v>4.476229029663664</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1336,6 +1383,9 @@
       <c r="Q16">
         <v>0</v>
       </c>
+      <c r="R16">
+        <v>4.11879765724225</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1395,6 +1445,9 @@
       <c r="Q17">
         <v>3</v>
       </c>
+      <c r="R17">
+        <v>4.385888662670677</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1453,6 +1506,9 @@
       </c>
       <c r="Q18">
         <v>4</v>
+      </c>
+      <c r="R18">
+        <v>3.76326812791891</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_dataset.xlsx
+++ b/aggregated_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,6 +456,11 @@
           <t>avg_distance_km</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -828,6 +833,9 @@
       <c r="R7">
         <v>4.561800693261488</v>
       </c>
+      <c r="S7">
+        <v>52.60169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -1386,6 +1394,9 @@
       <c r="R16">
         <v>4.11879765724225</v>
       </c>
+      <c r="S16">
+        <v>52.60748</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1509,6 +1520,225 @@
       </c>
       <c r="R18">
         <v>3.76326812791891</v>
+      </c>
+      <c r="S18">
+        <v>29.85245</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45285</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2023-12-25 to 2024-01-07</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>243</v>
+      </c>
+      <c r="N19">
+        <v>97</v>
+      </c>
+      <c r="O19">
+        <v>264</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>4.897854013092467</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023-10-20 to 2023-11-02</t>
+        </is>
+      </c>
+      <c r="S20">
+        <v>29.85245</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023-11-02 to 2023-11-03</t>
+        </is>
+      </c>
+      <c r="S21">
+        <v>29.85245</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-12-24 to 2024-01-06</t>
+        </is>
+      </c>
+      <c r="S22">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-01-06 to 2024-01-19</t>
+        </is>
+      </c>
+      <c r="S23">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-01-19 to 2024-02-01</t>
+        </is>
+      </c>
+      <c r="S24">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-02-01 to 2024-02-14</t>
+        </is>
+      </c>
+      <c r="S25">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-02-14 to 2024-02-27</t>
+        </is>
+      </c>
+      <c r="S26">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-02-27 to 2024-03-11</t>
+        </is>
+      </c>
+      <c r="S27">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-03-11 to 2024-03-24</t>
+        </is>
+      </c>
+      <c r="S28">
+        <v>52.60732</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-03-24 to 2024-04-06</t>
+        </is>
+      </c>
+      <c r="S29">
+        <v>52.60726</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-06 to 2024-04-19</t>
+        </is>
+      </c>
+      <c r="S30">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-19 to 2024-04-28</t>
+        </is>
+      </c>
+      <c r="S31">
+        <v>52.60748</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-11-24 to 2024-12-07</t>
+        </is>
+      </c>
+      <c r="S32">
+        <v>52.60169</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-12-07 to 2024-12-20</t>
+        </is>
+      </c>
+      <c r="S33">
+        <v>52.60169</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-12-20 to 2025-01-02</t>
+        </is>
+      </c>
+      <c r="S34">
+        <v>52.60169</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-01-02 to 2025-01-15</t>
+        </is>
+      </c>
+      <c r="S35">
+        <v>52.60169</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-01-15 to 2025-01-28</t>
+        </is>
+      </c>
+      <c r="S36">
+        <v>52.60169</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-01-28 to 2025-02-02</t>
+        </is>
+      </c>
+      <c r="S37">
+        <v>52.60169</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_dataset.xlsx
+++ b/aggregated_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +458,12 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Selected</t>
+          <t>encatch_area</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>encatch_percent</t>
         </is>
       </c>
     </row>
@@ -523,6 +528,12 @@
       <c r="R2">
         <v>4.136376498618044</v>
       </c>
+      <c r="S2">
+        <v>52.60169</v>
+      </c>
+      <c r="T2">
+        <v>15.353339</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -585,6 +596,12 @@
       <c r="R3">
         <v>4.171829734708102</v>
       </c>
+      <c r="S3">
+        <v>52.60169</v>
+      </c>
+      <c r="T3">
+        <v>15.353339</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -647,6 +664,12 @@
       <c r="R4">
         <v>4.490206231553414</v>
       </c>
+      <c r="S4">
+        <v>52.60169</v>
+      </c>
+      <c r="T4">
+        <v>15.353339</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -709,6 +732,12 @@
       <c r="R5">
         <v>4.518039712920642</v>
       </c>
+      <c r="S5">
+        <v>52.60169</v>
+      </c>
+      <c r="T5">
+        <v>15.353339</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -771,6 +800,12 @@
       <c r="R6">
         <v>4.508389709238768</v>
       </c>
+      <c r="S6">
+        <v>52.60169</v>
+      </c>
+      <c r="T6">
+        <v>15.353339</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -836,6 +871,9 @@
       <c r="S7">
         <v>52.60169</v>
       </c>
+      <c r="T7">
+        <v>15.353339</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -898,6 +936,12 @@
       <c r="R8">
         <v>4.723351366358533</v>
       </c>
+      <c r="S8">
+        <v>52.60748</v>
+      </c>
+      <c r="T8">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -960,6 +1004,12 @@
       <c r="R9">
         <v>4.541151156676015</v>
       </c>
+      <c r="S9">
+        <v>52.60748</v>
+      </c>
+      <c r="T9">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -1022,6 +1072,12 @@
       <c r="R10">
         <v>4.286881911154486</v>
       </c>
+      <c r="S10">
+        <v>52.60712</v>
+      </c>
+      <c r="T10">
+        <v>15.354924</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -1084,6 +1140,12 @@
       <c r="R11">
         <v>4.675176933039502</v>
       </c>
+      <c r="S11">
+        <v>52.60748</v>
+      </c>
+      <c r="T11">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -1146,6 +1208,12 @@
       <c r="R12">
         <v>4.299951632670066</v>
       </c>
+      <c r="S12">
+        <v>52.60748</v>
+      </c>
+      <c r="T12">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -1208,6 +1276,12 @@
       <c r="R13">
         <v>3.709505535754547</v>
       </c>
+      <c r="S13">
+        <v>52.60748</v>
+      </c>
+      <c r="T13">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -1270,6 +1344,12 @@
       <c r="R14">
         <v>3.876734017006266</v>
       </c>
+      <c r="S14">
+        <v>52.60748</v>
+      </c>
+      <c r="T14">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -1332,6 +1412,12 @@
       <c r="R15">
         <v>4.476229029663664</v>
       </c>
+      <c r="S15">
+        <v>52.60748</v>
+      </c>
+      <c r="T15">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1397,6 +1483,9 @@
       <c r="S16">
         <v>52.60748</v>
       </c>
+      <c r="T16">
+        <v>15.355029</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1459,6 +1548,12 @@
       <c r="R17">
         <v>4.385888662670677</v>
       </c>
+      <c r="S17">
+        <v>29.85245</v>
+      </c>
+      <c r="T17">
+        <v>8.71331</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1524,221 +1619,8 @@
       <c r="S18">
         <v>29.85245</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>45285</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2023-12-25 to 2024-01-07</t>
-        </is>
-      </c>
-      <c r="M19">
-        <v>243</v>
-      </c>
-      <c r="N19">
-        <v>97</v>
-      </c>
-      <c r="O19">
-        <v>264</v>
-      </c>
-      <c r="P19">
-        <v>15</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-      <c r="R19">
-        <v>4.897854013092467</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2023-10-20 to 2023-11-02</t>
-        </is>
-      </c>
-      <c r="S20">
-        <v>29.85245</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2023-11-02 to 2023-11-03</t>
-        </is>
-      </c>
-      <c r="S21">
-        <v>29.85245</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2023-12-24 to 2024-01-06</t>
-        </is>
-      </c>
-      <c r="S22">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2024-01-06 to 2024-01-19</t>
-        </is>
-      </c>
-      <c r="S23">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2024-01-19 to 2024-02-01</t>
-        </is>
-      </c>
-      <c r="S24">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2024-02-01 to 2024-02-14</t>
-        </is>
-      </c>
-      <c r="S25">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2024-02-14 to 2024-02-27</t>
-        </is>
-      </c>
-      <c r="S26">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2024-02-27 to 2024-03-11</t>
-        </is>
-      </c>
-      <c r="S27">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2024-03-11 to 2024-03-24</t>
-        </is>
-      </c>
-      <c r="S28">
-        <v>52.60732</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2024-03-24 to 2024-04-06</t>
-        </is>
-      </c>
-      <c r="S29">
-        <v>52.60726</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2024-04-06 to 2024-04-19</t>
-        </is>
-      </c>
-      <c r="S30">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2024-04-19 to 2024-04-28</t>
-        </is>
-      </c>
-      <c r="S31">
-        <v>52.60748</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2024-11-24 to 2024-12-07</t>
-        </is>
-      </c>
-      <c r="S32">
-        <v>52.60169</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2024-12-07 to 2024-12-20</t>
-        </is>
-      </c>
-      <c r="S33">
-        <v>52.60169</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2024-12-20 to 2025-01-02</t>
-        </is>
-      </c>
-      <c r="S34">
-        <v>52.60169</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-01-02 to 2025-01-15</t>
-        </is>
-      </c>
-      <c r="S35">
-        <v>52.60169</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-01-15 to 2025-01-28</t>
-        </is>
-      </c>
-      <c r="S36">
-        <v>52.60169</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-01-28 to 2025-02-02</t>
-        </is>
-      </c>
-      <c r="S37">
-        <v>52.60169</v>
+      <c r="T18">
+        <v>8.71331</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_dataset.xlsx
+++ b/aggregated_dataset.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,1254 +373,1250 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>period_end.x</t>
+          <t>period_end</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>period.x</t>
+          <t>Air/drone strike</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Ground Attacks</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Shelling/artillery/missile attack</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Civil Unrest</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avg_distance_km</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Burn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CMF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Limb</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NTD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Soft Tissue</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wound Care</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>period_id</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>period_end.y</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>period.y</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Air/drone strike</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Ground Attacks</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Shelling/artillery/missile attack</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Civil Unrest</t>
+          <t>Catchment Area (km²)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Attacks in Catchment</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>avg_distance_km</t>
+          <t>Total Attacks in Segment</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>encatch_area</t>
+          <t>Percentage of Total Attacks</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>encatch_percent</t>
+          <t>percent_total_area</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45677</v>
+        <v>45206</v>
       </c>
       <c r="B2" s="2">
-        <v>45690</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-01-20 to 2025-02-02</t>
-        </is>
+        <v>45219</v>
+      </c>
+      <c r="C2">
+        <v>374</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3.76326812791891</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>44</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>148</v>
-      </c>
-      <c r="I2">
-        <v>133</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-01-20 to 2025-02-02</t>
-        </is>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
       <c r="N2">
-        <v>27</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Al Shifa Medical Hospital</t>
+        </is>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>27.72</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="R2">
-        <v>4.136376498618044</v>
+        <v>451</v>
       </c>
       <c r="S2">
-        <v>52.60169</v>
+        <v>35.03</v>
       </c>
       <c r="T2">
-        <v>15.353339</v>
+        <v>0.07594520547945205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45663</v>
+        <v>45220</v>
       </c>
       <c r="B3" s="2">
-        <v>45676</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-01-06 to 2025-01-19</t>
-        </is>
+        <v>45233</v>
+      </c>
+      <c r="C3">
+        <v>374</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>119</v>
+        <v>4.385888662670677</v>
       </c>
       <c r="I3">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025-01-06 to 2025-01-19</t>
-        </is>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="N3">
-        <v>28</v>
-      </c>
-      <c r="O3">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Al Shifa Medical Hospital</t>
+        </is>
       </c>
       <c r="P3">
-        <v>35</v>
+        <v>27.72</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="R3">
-        <v>4.171829734708102</v>
+        <v>656</v>
       </c>
       <c r="S3">
-        <v>52.60169</v>
+        <v>30.49</v>
       </c>
       <c r="T3">
-        <v>15.353339</v>
+        <v>0.07594520547945205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45649</v>
+        <v>45271</v>
       </c>
       <c r="B4" s="2">
-        <v>45662</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-12-23 to 2025-01-05</t>
-        </is>
+        <v>45284</v>
+      </c>
+      <c r="C4">
+        <v>260</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>120</v>
+        <v>4.11879765724225</v>
       </c>
       <c r="I4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-12-23 to 2025-01-05</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>22</v>
-      </c>
-      <c r="O4">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P4">
-        <v>40</v>
+        <v>48.85</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R4">
-        <v>4.490206231553414</v>
+        <v>652</v>
       </c>
       <c r="S4">
-        <v>52.60169</v>
+        <v>1.84</v>
       </c>
       <c r="T4">
-        <v>15.353339</v>
+        <v>0.1338356164383562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45635</v>
+        <v>45285</v>
       </c>
       <c r="B5" s="2">
-        <v>45648</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-12-09 to 2024-12-22</t>
-        </is>
+        <v>45298</v>
+      </c>
+      <c r="C5">
+        <v>243</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="F5">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>122</v>
+        <v>4.897854013092467</v>
       </c>
       <c r="I5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-12-22</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024-12-09 to 2024-12-22</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>25</v>
-      </c>
-      <c r="O5">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P5">
-        <v>57</v>
+        <v>48.85</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="R5">
-        <v>4.518039712920642</v>
+        <v>623</v>
       </c>
       <c r="S5">
-        <v>52.60169</v>
+        <v>5.46</v>
       </c>
       <c r="T5">
-        <v>15.353339</v>
+        <v>0.1338356164383562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45621</v>
+        <v>45299</v>
       </c>
       <c r="B6" s="2">
-        <v>45634</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-11-25 to 2024-12-08</t>
-        </is>
+        <v>45312</v>
+      </c>
+      <c r="C6">
+        <v>246</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>4.476229029663664</v>
       </c>
       <c r="I6">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-12-08</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-11-25 to 2024-12-08</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>24</v>
-      </c>
-      <c r="O6">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P6">
-        <v>55</v>
+        <v>48.85</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R6">
-        <v>4.508389709238768</v>
+        <v>645</v>
       </c>
       <c r="S6">
-        <v>52.60169</v>
+        <v>3.57</v>
       </c>
       <c r="T6">
-        <v>15.353339</v>
+        <v>0.1338356164383562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45607</v>
+        <v>45313</v>
       </c>
       <c r="B7" s="2">
-        <v>45620</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-11-11 to 2024-11-24</t>
-        </is>
+        <v>45326</v>
+      </c>
+      <c r="C7">
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F7">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>133</v>
+        <v>3.876734017006266</v>
       </c>
       <c r="I7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-11-24</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-11-11 to 2024-11-24</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>35</v>
-      </c>
-      <c r="O7">
-        <v>182</v>
+        <v>6</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P7">
-        <v>38</v>
+        <v>48.85</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R7">
-        <v>4.561800693261488</v>
+        <v>586</v>
       </c>
       <c r="S7">
-        <v>52.60169</v>
+        <v>3.07</v>
       </c>
       <c r="T7">
-        <v>15.353339</v>
+        <v>0.1338356164383562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45397</v>
+        <v>45327</v>
       </c>
       <c r="B8" s="2">
-        <v>45410</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-04-15 to 2024-04-28</t>
-        </is>
+        <v>45340</v>
+      </c>
+      <c r="C8">
+        <v>260</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3.709505535754547</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-04-28</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024-04-15 to 2024-04-28</t>
-        </is>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>25</v>
-      </c>
-      <c r="O8">
-        <v>157</v>
+        <v>7</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>48.85</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R8">
-        <v>4.723351366358533</v>
+        <v>531</v>
       </c>
       <c r="S8">
-        <v>52.60748</v>
+        <v>3.39</v>
       </c>
       <c r="T8">
-        <v>15.355029</v>
+        <v>0.1338356164383562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>45383</v>
+        <v>45341</v>
       </c>
       <c r="B9" s="2">
-        <v>45396</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-04-01 to 2024-04-14</t>
-        </is>
+        <v>45354</v>
+      </c>
+      <c r="C9">
+        <v>241</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>4.299951632670066</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024-04-14</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2024-04-01 to 2024-04-14</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>32</v>
-      </c>
-      <c r="O9">
-        <v>181</v>
+        <v>4</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P9">
-        <v>15</v>
+        <v>59.13</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="R9">
-        <v>4.541151156676015</v>
+        <v>549</v>
       </c>
       <c r="S9">
-        <v>52.60748</v>
+        <v>3.46</v>
       </c>
       <c r="T9">
-        <v>15.355029</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>45369</v>
+        <v>45355</v>
       </c>
       <c r="B10" s="2">
-        <v>45382</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-03-18 to 2024-03-31</t>
-        </is>
+        <v>45368</v>
+      </c>
+      <c r="C10">
+        <v>246</v>
       </c>
       <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>231</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
-        <v>9</v>
+        <v>4.675176933039502</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024-03-31</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024-03-18 to 2024-03-31</t>
-        </is>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>243</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>66</v>
-      </c>
-      <c r="O10">
-        <v>204</v>
+        <v>7</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P10">
-        <v>17</v>
+        <v>59.99</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="R10">
-        <v>4.286881911154486</v>
+        <v>533</v>
       </c>
       <c r="S10">
-        <v>52.60712</v>
+        <v>9.57</v>
       </c>
       <c r="T10">
-        <v>15.354924</v>
+        <v>0.1643561643835617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>45355</v>
+        <v>45369</v>
       </c>
       <c r="B11" s="2">
-        <v>45368</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2024-03-04 to 2024-03-17</t>
-        </is>
+        <v>45382</v>
+      </c>
+      <c r="C11">
+        <v>243</v>
       </c>
       <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>204</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4.286881911154486</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2024-03-17</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2024-03-04 to 2024-03-17</t>
-        </is>
+      <c r="L11">
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>37</v>
-      </c>
-      <c r="O11">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P11">
-        <v>18</v>
+        <v>60.02</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="R11">
-        <v>4.675176933039502</v>
+        <v>532</v>
       </c>
       <c r="S11">
-        <v>52.60748</v>
+        <v>10.9</v>
       </c>
       <c r="T11">
-        <v>15.355029</v>
+        <v>0.1644383561643836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>45341</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="2">
-        <v>45354</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2024-02-19 to 2024-03-03</t>
-        </is>
+        <v>45396</v>
+      </c>
+      <c r="C12">
+        <v>182</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>4.541151156676015</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2024-03-03</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2024-02-19 to 2024-03-03</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="N12">
-        <v>55</v>
-      </c>
-      <c r="O12">
-        <v>231</v>
+        <v>8</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P12">
-        <v>22</v>
+        <v>59.99</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R12">
-        <v>4.299951632670066</v>
+        <v>420</v>
       </c>
       <c r="S12">
-        <v>52.60748</v>
+        <v>10.95</v>
       </c>
       <c r="T12">
-        <v>15.355029</v>
+        <v>0.1643561643835617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>45327</v>
+        <v>45397</v>
       </c>
       <c r="B13" s="2">
-        <v>45340</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2024-02-05 to 2024-02-18</t>
-        </is>
+        <v>45410</v>
+      </c>
+      <c r="C13">
+        <v>248</v>
       </c>
       <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>157</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>4.723351366358533</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>7</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024-02-18</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2024-02-05 to 2024-02-18</t>
-        </is>
-      </c>
-      <c r="M13">
-        <v>260</v>
-      </c>
       <c r="N13">
-        <v>76</v>
-      </c>
-      <c r="O13">
-        <v>161</v>
+        <v>3</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>European Hospital</t>
+        </is>
       </c>
       <c r="P13">
-        <v>31</v>
+        <v>59.99</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="R13">
-        <v>3.709505535754547</v>
+        <v>446</v>
       </c>
       <c r="S13">
-        <v>52.60748</v>
+        <v>7.85</v>
       </c>
       <c r="T13">
-        <v>15.355029</v>
+        <v>0.1643561643835617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>45313</v>
+        <v>45607</v>
       </c>
       <c r="B14" s="2">
-        <v>45326</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2024-01-22 to 2024-02-04</t>
-        </is>
+        <v>45620</v>
+      </c>
+      <c r="C14">
+        <v>210</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="F14">
+        <v>38</v>
+      </c>
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
-        <v>6</v>
+        <v>4.561800693261488</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2024-02-04</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2024-01-22 to 2024-02-04</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>78</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="N14">
-        <v>106</v>
-      </c>
-      <c r="O14">
-        <v>234</v>
+        <v>84</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Nasser Hospital</t>
+        </is>
       </c>
       <c r="P14">
-        <v>39</v>
+        <v>48.84</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="R14">
-        <v>3.876734017006266</v>
+        <v>471</v>
       </c>
       <c r="S14">
-        <v>52.60748</v>
+        <v>8.07</v>
       </c>
       <c r="T14">
-        <v>15.355029</v>
+        <v>0.1338082191780822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>45299</v>
+        <v>45621</v>
       </c>
       <c r="B15" s="2">
-        <v>45312</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2024-01-08 to 2024-01-21</t>
-        </is>
+        <v>45634</v>
+      </c>
+      <c r="C15">
+        <v>207</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4.508389709238768</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024-01-21</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024-01-08 to 2024-01-21</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="N15">
-        <v>124</v>
-      </c>
-      <c r="O15">
-        <v>242</v>
+        <v>73</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Nasser Hospital</t>
+        </is>
       </c>
       <c r="P15">
-        <v>33</v>
+        <v>48.84</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R15">
-        <v>4.476229029663664</v>
+        <v>418</v>
       </c>
       <c r="S15">
-        <v>52.60748</v>
+        <v>4.07</v>
       </c>
       <c r="T15">
-        <v>15.355029</v>
+        <v>0.1338082191780822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>45271</v>
+        <v>45635</v>
       </c>
       <c r="B16" s="2">
-        <v>45284</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2023-12-11 to 2023-12-24</t>
-        </is>
+        <v>45648</v>
+      </c>
+      <c r="C16">
+        <v>225</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
-        <v>1</v>
+        <v>4.518039712920642</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2023-12-24</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2023-12-11 to 2023-12-24</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="N16">
-        <v>137</v>
-      </c>
-      <c r="O16">
-        <v>238</v>
+        <v>104</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Nasser Hospital</t>
+        </is>
       </c>
       <c r="P16">
-        <v>17</v>
+        <v>48.84</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R16">
-        <v>4.11879765724225</v>
+        <v>409</v>
       </c>
       <c r="S16">
-        <v>52.60748</v>
+        <v>5.13</v>
       </c>
       <c r="T16">
-        <v>15.355029</v>
+        <v>0.1338082191780822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>45220</v>
+        <v>45649</v>
       </c>
       <c r="B17" s="2">
-        <v>45233</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2023-10-21 to 2023-11-03</t>
-        </is>
+        <v>45662</v>
+      </c>
+      <c r="C17">
+        <v>237</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>4.490206231553414</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2023-11-03</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2023-10-21 to 2023-11-03</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>56</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>374</v>
+        <v>120</v>
       </c>
       <c r="N17">
-        <v>67</v>
-      </c>
-      <c r="O17">
-        <v>211</v>
+        <v>114</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Nasser Hospital</t>
+        </is>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>48.84</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="R17">
-        <v>4.385888662670677</v>
+        <v>406</v>
       </c>
       <c r="S17">
-        <v>29.85245</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="T17">
-        <v>8.71331</v>
+        <v>0.1338082191780822</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>45206</v>
+        <v>45663</v>
       </c>
       <c r="B18" s="2">
-        <v>45219</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2023-10-07 to 2023-10-20</t>
-        </is>
+        <v>45676</v>
+      </c>
+      <c r="C18">
+        <v>215</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E18">
+        <v>115</v>
+      </c>
+      <c r="F18">
+        <v>35</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>4.171829734708102</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>119</v>
+      </c>
+      <c r="N18">
+        <v>134</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Nasser Hospital</t>
+        </is>
+      </c>
+      <c r="P18">
+        <v>48.84</v>
+      </c>
+      <c r="Q18">
+        <v>34</v>
+      </c>
+      <c r="R18">
+        <v>394</v>
+      </c>
+      <c r="S18">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="T18">
+        <v>0.1338082191780822</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45677</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45690</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.136376498618044</v>
+      </c>
+      <c r="I19">
+        <v>34</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>44</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2023-10-20</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2023-10-07 to 2023-10-20</t>
-        </is>
-      </c>
-      <c r="M18">
-        <v>374</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>67</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>3.76326812791891</v>
-      </c>
-      <c r="S18">
-        <v>29.85245</v>
-      </c>
-      <c r="T18">
-        <v>8.71331</v>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>148</v>
+      </c>
+      <c r="N19">
+        <v>133</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Nasser Hospital</t>
+        </is>
+      </c>
+      <c r="P19">
+        <v>48.84</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>65</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0.1338082191780822</v>
       </c>
     </row>
   </sheetData>
